--- a/LangMod/JP/Thing.xlsx
+++ b/LangMod/JP/Thing.xlsx
@@ -722,9 +722,9 @@
   <dimension ref="A1:BT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
